--- a/DataStats2.xlsx
+++ b/DataStats2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="32">
   <si>
     <t>deaths</t>
   </si>
@@ -1201,8 +1201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C139" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M154" sqref="M154"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1218,7 +1218,7 @@
     <col min="25" max="25" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="L1" t="s">
         <v>7</v>
       </c>
@@ -1247,7 +1247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>15</v>
       </c>
@@ -1289,7 +1289,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3">
         <v>1916</v>
@@ -1310,7 +1310,7 @@
         <v>1951</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C4">
         <f>$C$2-C3</f>
         <v>86</v>
@@ -1364,7 +1364,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="K5" t="s">
         <v>2</v>
       </c>
@@ -1376,7 +1376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
@@ -1436,8 +1436,11 @@
         <f t="shared" si="3"/>
         <v>AgeCat8</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="str">
         <f>B7&amp;";"&amp;C7</f>
         <v>1;1</v>
@@ -1498,10 +1501,14 @@
         <f t="shared" si="5"/>
         <v>0.375</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U7" s="2">
+        <f t="shared" ref="U7" si="6">U10/U11</f>
+        <v>0.10833333333333334</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="str">
-        <f t="shared" ref="A8:A22" si="6">B8&amp;";"&amp;C8</f>
+        <f t="shared" ref="A8:A22" si="7">B8&amp;";"&amp;C8</f>
         <v>1;2</v>
       </c>
       <c r="B8" s="1">
@@ -1533,37 +1540,41 @@
         <v>1.7182130584192441E-2</v>
       </c>
       <c r="N8" s="2">
-        <f t="shared" ref="N8:Q8" si="7">N12/N13</f>
+        <f t="shared" ref="N8:Q8" si="8">N12/N13</f>
         <v>2.3809523809523808E-2</v>
       </c>
       <c r="O8" s="2">
+        <f t="shared" si="8"/>
+        <v>3.4111310592459608E-2</v>
+      </c>
+      <c r="P8" s="2">
+        <f t="shared" si="8"/>
+        <v>4.8351648351648353E-2</v>
+      </c>
+      <c r="Q8" s="2">
+        <f t="shared" si="8"/>
+        <v>5.730129390018484E-2</v>
+      </c>
+      <c r="R8" s="2">
+        <f t="shared" ref="R8:T8" si="9">R12/R13</f>
+        <v>0.1006036217303823</v>
+      </c>
+      <c r="S8" s="2">
+        <f t="shared" si="9"/>
+        <v>0.15780445969125215</v>
+      </c>
+      <c r="T8" s="2">
+        <f t="shared" si="9"/>
+        <v>0.2570093457943925</v>
+      </c>
+      <c r="U8" s="2">
+        <f t="shared" ref="U8" si="10">U12/U13</f>
+        <v>8.5951244031163609E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>3.4111310592459608E-2</v>
-      </c>
-      <c r="P8" s="2">
-        <f t="shared" si="7"/>
-        <v>4.8351648351648353E-2</v>
-      </c>
-      <c r="Q8" s="2">
-        <f t="shared" si="7"/>
-        <v>5.730129390018484E-2</v>
-      </c>
-      <c r="R8" s="2">
-        <f t="shared" ref="R8:T8" si="8">R12/R13</f>
-        <v>0.1006036217303823</v>
-      </c>
-      <c r="S8" s="2">
-        <f t="shared" si="8"/>
-        <v>0.15780445969125215</v>
-      </c>
-      <c r="T8" s="2">
-        <f t="shared" si="8"/>
-        <v>0.2570093457943925</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="str">
-        <f t="shared" si="6"/>
         <v>1;3</v>
       </c>
       <c r="B9" s="1">
@@ -1588,9 +1599,9 @@
         <v>702</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1;4</v>
       </c>
       <c r="B10" s="1">
@@ -1622,37 +1633,41 @@
         <v>7</v>
       </c>
       <c r="N10">
-        <f t="shared" ref="N10:T14" si="9">VLOOKUP(N$1&amp;";"&amp;N$2,$A$7:$H$22,MATCH($L10,$A$6:$H$6,FALSE),FALSE)</f>
+        <f t="shared" ref="N10:T14" si="11">VLOOKUP(N$1&amp;";"&amp;N$2,$A$7:$H$22,MATCH($L10,$A$6:$H$6,FALSE),FALSE)</f>
         <v>8</v>
       </c>
       <c r="O10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>10</v>
       </c>
       <c r="P10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>9</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
       <c r="R10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
       <c r="S10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>21</v>
       </c>
       <c r="T10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U10">
+        <f>SUM(M10:T10)</f>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1;5</v>
       </c>
       <c r="B11" s="1">
@@ -1680,41 +1695,45 @@
         <v>10</v>
       </c>
       <c r="M11">
-        <f t="shared" ref="M11:M14" si="10">VLOOKUP(M$1&amp;";"&amp;M$2,$A$7:$H$22,MATCH($L11,$A$6:$H$6,FALSE),FALSE)</f>
+        <f t="shared" ref="M11:M14" si="12">VLOOKUP(M$1&amp;";"&amp;M$2,$A$7:$H$22,MATCH($L11,$A$6:$H$6,FALSE),FALSE)</f>
         <v>177</v>
       </c>
       <c r="N11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>101</v>
       </c>
       <c r="O11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>145</v>
       </c>
       <c r="P11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>134</v>
       </c>
       <c r="Q11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>107</v>
       </c>
       <c r="R11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>67</v>
       </c>
       <c r="S11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>77</v>
       </c>
       <c r="T11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U11">
+        <f t="shared" ref="U11:U14" si="13">SUM(M11:T11)</f>
+        <v>840</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1;6</v>
       </c>
       <c r="B12" s="1">
@@ -1742,41 +1761,45 @@
         <v>11</v>
       </c>
       <c r="M12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="N12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="O12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>19</v>
       </c>
       <c r="P12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>22</v>
       </c>
       <c r="Q12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>31</v>
       </c>
       <c r="R12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>50</v>
       </c>
       <c r="S12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>92</v>
       </c>
       <c r="T12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>110</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U12">
+        <f t="shared" si="13"/>
+        <v>342</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1;7</v>
       </c>
       <c r="B13" s="1">
@@ -1804,41 +1827,45 @@
         <v>12</v>
       </c>
       <c r="M13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>582</v>
       </c>
       <c r="N13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>336</v>
       </c>
       <c r="O13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>557</v>
       </c>
       <c r="P13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>455</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>541</v>
       </c>
       <c r="R13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>497</v>
       </c>
       <c r="S13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>583</v>
       </c>
       <c r="T13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>428</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U13">
+        <f t="shared" si="13"/>
+        <v>3979</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1;8</v>
       </c>
       <c r="B14" s="1">
@@ -1866,41 +1893,45 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>759</v>
       </c>
       <c r="N14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>437</v>
       </c>
       <c r="O14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>702</v>
       </c>
       <c r="P14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>589</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>648</v>
       </c>
       <c r="R14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>564</v>
       </c>
       <c r="S14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>660</v>
       </c>
       <c r="T14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>460</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U14">
+        <f t="shared" si="13"/>
+        <v>4819</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2;1</v>
       </c>
       <c r="B15" s="1">
@@ -1925,9 +1956,9 @@
         <v>925</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2;2</v>
       </c>
       <c r="B16" s="1">
@@ -1975,21 +2006,21 @@
         <v>648</v>
       </c>
       <c r="R16">
-        <f t="shared" ref="R16:T16" si="11">R11+R13</f>
+        <f t="shared" ref="R16:T16" si="14">R11+R13</f>
         <v>564</v>
       </c>
       <c r="S16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>660</v>
       </c>
       <c r="T16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>460</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2;3</v>
       </c>
       <c r="B17" s="1">
@@ -2016,7 +2047,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2;4</v>
       </c>
       <c r="B18" s="1">
@@ -2043,7 +2074,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2;5</v>
       </c>
       <c r="B19" s="1">
@@ -2070,7 +2101,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2;6</v>
       </c>
       <c r="B20" s="1">
@@ -2097,7 +2128,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2;7</v>
       </c>
       <c r="B21" s="1">
@@ -2124,7 +2155,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2;8</v>
       </c>
       <c r="B22" s="1">
@@ -2159,13 +2190,13 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C35" s="1" t="s">
         <v>23</v>
       </c>
       <c r="S35" s="1"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C36" s="6">
         <v>-159200</v>
       </c>
@@ -2186,44 +2217,47 @@
       </c>
       <c r="S36" s="1"/>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="S37" s="1"/>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="M39">
         <f>M4</f>
         <v>54</v>
       </c>
       <c r="N39">
-        <f t="shared" ref="N39:T39" si="12">N4</f>
+        <f t="shared" ref="N39:T39" si="15">N4</f>
         <v>56</v>
       </c>
       <c r="O39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>60</v>
       </c>
       <c r="P39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>64</v>
       </c>
       <c r="Q39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>68</v>
       </c>
       <c r="R39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>72</v>
       </c>
       <c r="S39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>78</v>
       </c>
       <c r="T39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>86</v>
       </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U39" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>17</v>
       </c>
@@ -2235,7 +2269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>7</v>
       </c>
@@ -2264,9 +2298,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="str">
-        <f t="shared" ref="A42:A105" si="13">B42&amp;";"&amp;C42&amp;";"&amp;D42</f>
+        <f t="shared" ref="A42:A105" si="16">B42&amp;";"&amp;C42&amp;";"&amp;D42</f>
         <v>1;1;wealthcat1</v>
       </c>
       <c r="B42" s="1">
@@ -2301,37 +2335,41 @@
         <v>4.1237113402061855E-2</v>
       </c>
       <c r="N42" s="2">
-        <f t="shared" ref="N42:Q42" si="14">N48/N54</f>
+        <f t="shared" ref="N42:Q42" si="17">N48/N54</f>
         <v>9.1743119266055051E-3</v>
       </c>
       <c r="O42" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.08</v>
       </c>
       <c r="P42" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>7.03125E-2</v>
       </c>
       <c r="Q42" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.11504424778761062</v>
       </c>
       <c r="R42" s="2">
-        <f t="shared" ref="R42:T42" si="15">R48/R54</f>
+        <f t="shared" ref="R42:T42" si="18">R48/R54</f>
         <v>0.12345679012345678</v>
       </c>
       <c r="S42" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.23333333333333334</v>
       </c>
       <c r="T42" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.26229508196721313</v>
       </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U42" s="2">
+        <f t="shared" ref="U42" si="19">U48/U54</f>
+        <v>9.719222462203024E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1;1;wealthcat2</v>
       </c>
       <c r="B43" s="1">
@@ -2362,41 +2400,45 @@
         <v>19</v>
       </c>
       <c r="M43" s="2">
-        <f t="shared" ref="M43:Q43" si="16">M49/M55</f>
+        <f t="shared" ref="M43:Q43" si="20">M49/M55</f>
         <v>3.2786885245901641E-2</v>
       </c>
       <c r="N43" s="2">
+        <f t="shared" si="20"/>
+        <v>1.7857142857142856E-2</v>
+      </c>
+      <c r="O43" s="2">
+        <f t="shared" si="20"/>
+        <v>3.8095238095238099E-2</v>
+      </c>
+      <c r="P43" s="2">
+        <f t="shared" si="20"/>
+        <v>5.8139534883720929E-2</v>
+      </c>
+      <c r="Q43" s="2">
+        <f t="shared" si="20"/>
+        <v>0.10526315789473684</v>
+      </c>
+      <c r="R43" s="2">
+        <f t="shared" ref="R43:T43" si="21">R49/R55</f>
+        <v>0.13223140495867769</v>
+      </c>
+      <c r="S43" s="2">
+        <f t="shared" si="21"/>
+        <v>0.17449664429530201</v>
+      </c>
+      <c r="T43" s="2">
+        <f t="shared" si="21"/>
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="U43" s="2">
+        <f t="shared" ref="U43" si="22">U49/U55</f>
+        <v>0.11617312072892938</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="str">
         <f t="shared" si="16"/>
-        <v>1.7857142857142856E-2</v>
-      </c>
-      <c r="O43" s="2">
-        <f t="shared" si="16"/>
-        <v>3.8095238095238099E-2</v>
-      </c>
-      <c r="P43" s="2">
-        <f t="shared" si="16"/>
-        <v>5.8139534883720929E-2</v>
-      </c>
-      <c r="Q43" s="2">
-        <f t="shared" si="16"/>
-        <v>0.10526315789473684</v>
-      </c>
-      <c r="R43" s="2">
-        <f t="shared" ref="R43:T43" si="17">R49/R55</f>
-        <v>0.13223140495867769</v>
-      </c>
-      <c r="S43" s="2">
-        <f t="shared" si="17"/>
-        <v>0.17449664429530201</v>
-      </c>
-      <c r="T43" s="2">
-        <f t="shared" si="17"/>
-        <v>0.27200000000000002</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="str">
-        <f t="shared" si="13"/>
         <v>1;1;wealthcat3</v>
       </c>
       <c r="B44" s="1">
@@ -2427,41 +2469,45 @@
         <v>20</v>
       </c>
       <c r="M44" s="2">
-        <f t="shared" ref="M44:Q44" si="18">M50/M56</f>
+        <f t="shared" ref="M44:Q44" si="23">M50/M56</f>
         <v>1.3422818791946308E-2</v>
       </c>
       <c r="N44" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="O44" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>3.4482758620689655E-2</v>
       </c>
       <c r="P44" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>6.1855670103092786E-2</v>
       </c>
       <c r="Q44" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>5.8394160583941604E-2</v>
       </c>
       <c r="R44" s="2">
-        <f t="shared" ref="R44:T44" si="19">R50/R56</f>
+        <f t="shared" ref="R44:T44" si="24">R50/R56</f>
         <v>8.1081081081081086E-2</v>
       </c>
       <c r="S44" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.15714285714285714</v>
       </c>
       <c r="T44" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.29661016949152541</v>
       </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U44" s="2">
+        <f t="shared" ref="U44" si="25">U50/U56</f>
+        <v>9.2553191489361697E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1;1;wealthcat4</v>
       </c>
       <c r="B45" s="1">
@@ -2492,41 +2538,45 @@
         <v>21</v>
       </c>
       <c r="M45" s="2">
-        <f t="shared" ref="M45:Q45" si="20">M51/M57</f>
+        <f t="shared" ref="M45:Q45" si="26">M51/M57</f>
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="N45" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>3.7735849056603772E-2</v>
       </c>
       <c r="O45" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>3.2258064516129031E-2</v>
       </c>
       <c r="P45" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>5.8823529411764705E-2</v>
       </c>
       <c r="Q45" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>4.9586776859504134E-2</v>
       </c>
       <c r="R45" s="2">
-        <f t="shared" ref="R45:T45" si="21">R51/R57</f>
+        <f t="shared" ref="R45:T45" si="27">R51/R57</f>
         <v>0.125</v>
       </c>
       <c r="S45" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>0.17073170731707318</v>
       </c>
       <c r="T45" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>0.23749999999999999</v>
       </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U45" s="2">
+        <f t="shared" ref="U45" si="28">U51/U57</f>
+        <v>8.0859774820880248E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1;1;wealthcat5</v>
       </c>
       <c r="B46" s="1">
@@ -2557,41 +2607,45 @@
         <v>22</v>
       </c>
       <c r="M46" s="2">
-        <f t="shared" ref="M46:Q46" si="22">M52/M58</f>
+        <f t="shared" ref="M46:Q46" si="29">M52/M58</f>
         <v>7.4074074074074077E-3</v>
       </c>
       <c r="N46" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>2.2988505747126436E-2</v>
       </c>
       <c r="O46" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>2.3809523809523808E-2</v>
       </c>
       <c r="P46" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>2.1739130434782608E-2</v>
       </c>
       <c r="Q46" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>2.5974025974025976E-2</v>
       </c>
       <c r="R46" s="2">
-        <f t="shared" ref="R46:T46" si="23">R52/R58</f>
+        <f t="shared" ref="R46:T46" si="30">R52/R58</f>
         <v>0.1</v>
       </c>
       <c r="S46" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>0.13422818791946309</v>
       </c>
       <c r="T46" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>0.23943661971830985</v>
       </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U46" s="2">
+        <f t="shared" ref="U46" si="31">U52/U58</f>
+        <v>6.2015503875968991E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1;2;wealthcat1</v>
       </c>
       <c r="B47" s="1">
@@ -2627,9 +2681,9 @@
       <c r="S47" s="2"/>
       <c r="T47" s="2"/>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1;2;wealthcat2</v>
       </c>
       <c r="B48" s="1">
@@ -2670,33 +2724,37 @@
         <v>1</v>
       </c>
       <c r="O48" s="5">
-        <f t="shared" ref="N48:T52" si="24">VLOOKUP(O$1&amp;";"&amp;O$2&amp;";"&amp;$L48,$A$42:$I$121,MATCH($K48,$A$41:$I$41,FALSE),FALSE)</f>
+        <f t="shared" ref="N48:T52" si="32">VLOOKUP(O$1&amp;";"&amp;O$2&amp;";"&amp;$L48,$A$42:$I$121,MATCH($K48,$A$41:$I$41,FALSE),FALSE)</f>
         <v>12</v>
       </c>
       <c r="P48" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>9</v>
       </c>
       <c r="Q48" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>13</v>
       </c>
       <c r="R48" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>10</v>
       </c>
       <c r="S48" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>21</v>
       </c>
       <c r="T48" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U48" s="5">
+        <f>SUM(M48:T48)</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1;2;wealthcat3</v>
       </c>
       <c r="B49" s="1">
@@ -2730,40 +2788,44 @@
         <v>19</v>
       </c>
       <c r="M49" s="5">
-        <f t="shared" ref="M49:M52" si="25">VLOOKUP(M$1&amp;";"&amp;M$2&amp;";"&amp;$L49,$A$42:$I$121,MATCH($K49,$A$41:$I$41,FALSE),FALSE)</f>
+        <f t="shared" ref="M49:M52" si="33">VLOOKUP(M$1&amp;";"&amp;M$2&amp;";"&amp;$L49,$A$42:$I$121,MATCH($K49,$A$41:$I$41,FALSE),FALSE)</f>
         <v>4</v>
       </c>
       <c r="N49" s="7">
         <v>1</v>
       </c>
       <c r="O49" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>4</v>
       </c>
       <c r="P49" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>5</v>
       </c>
       <c r="Q49" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>12</v>
       </c>
       <c r="R49" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>16</v>
       </c>
       <c r="S49" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>26</v>
       </c>
       <c r="T49" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>34</v>
       </c>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U49" s="5">
+        <f t="shared" ref="U49:U58" si="34">SUM(M49:T49)</f>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1;2;wealthcat4</v>
       </c>
       <c r="B50" s="1">
@@ -2797,40 +2859,44 @@
         <v>20</v>
       </c>
       <c r="M50" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>2</v>
       </c>
       <c r="N50" s="7">
         <v>1</v>
       </c>
       <c r="O50" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>4</v>
       </c>
       <c r="P50" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>6</v>
       </c>
       <c r="Q50" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>8</v>
       </c>
       <c r="R50" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>9</v>
       </c>
       <c r="S50" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>22</v>
       </c>
       <c r="T50" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>35</v>
       </c>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U50" s="5">
+        <f t="shared" si="34"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1;2;wealthcat5</v>
       </c>
       <c r="B51" s="1">
@@ -2864,41 +2930,45 @@
         <v>21</v>
       </c>
       <c r="M51" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>2</v>
       </c>
       <c r="N51" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>4</v>
       </c>
       <c r="O51" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>5</v>
       </c>
       <c r="P51" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>8</v>
       </c>
       <c r="Q51" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>6</v>
       </c>
       <c r="R51" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>14</v>
       </c>
       <c r="S51" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>21</v>
       </c>
       <c r="T51" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>19</v>
       </c>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U51" s="5">
+        <f t="shared" si="34"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1;3;wealthcat1</v>
       </c>
       <c r="B52" s="1">
@@ -2932,41 +3002,45 @@
         <v>22</v>
       </c>
       <c r="M52" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="N52" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
       <c r="O52" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>4</v>
       </c>
       <c r="P52" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>3</v>
       </c>
       <c r="Q52" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>4</v>
       </c>
       <c r="R52" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>13</v>
       </c>
       <c r="S52" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>20</v>
       </c>
       <c r="T52" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U52" s="5">
+        <f t="shared" si="34"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1;3;wealthcat2</v>
       </c>
       <c r="B53" s="1">
@@ -2994,9 +3068,9 @@
         <v>702</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1;3;wealthcat3</v>
       </c>
       <c r="B54" s="1">
@@ -3034,37 +3108,41 @@
         <v>194</v>
       </c>
       <c r="N54" s="5">
-        <f t="shared" ref="N54:T58" si="26">VLOOKUP(N$1&amp;";"&amp;N$2&amp;";"&amp;$L54,$A$42:$I$121,MATCH($K54,$A$41:$I$41,FALSE),FALSE)</f>
+        <f t="shared" ref="N54:T58" si="35">VLOOKUP(N$1&amp;";"&amp;N$2&amp;";"&amp;$L54,$A$42:$I$121,MATCH($K54,$A$41:$I$41,FALSE),FALSE)</f>
         <v>109</v>
       </c>
       <c r="O54" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>150</v>
       </c>
       <c r="P54" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>128</v>
       </c>
       <c r="Q54" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>113</v>
       </c>
       <c r="R54" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>81</v>
       </c>
       <c r="S54" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>90</v>
       </c>
       <c r="T54" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>61</v>
       </c>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U54" s="5">
+        <f t="shared" si="34"/>
+        <v>926</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1;3;wealthcat4</v>
       </c>
       <c r="B55" s="1">
@@ -3098,41 +3176,45 @@
         <v>19</v>
       </c>
       <c r="M55" s="5">
-        <f t="shared" ref="M55:M58" si="27">VLOOKUP(M$1&amp;";"&amp;M$2&amp;";"&amp;$L55,$A$42:$I$121,MATCH($K55,$A$41:$I$41,FALSE),FALSE)</f>
+        <f t="shared" ref="M55:M58" si="36">VLOOKUP(M$1&amp;";"&amp;M$2&amp;";"&amp;$L55,$A$42:$I$121,MATCH($K55,$A$41:$I$41,FALSE),FALSE)</f>
         <v>122</v>
       </c>
       <c r="N55" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>56</v>
       </c>
       <c r="O55" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>105</v>
       </c>
       <c r="P55" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>86</v>
       </c>
       <c r="Q55" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>114</v>
       </c>
       <c r="R55" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>121</v>
       </c>
       <c r="S55" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>149</v>
       </c>
       <c r="T55" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>125</v>
       </c>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U55" s="5">
+        <f t="shared" si="34"/>
+        <v>878</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1;3;wealthcat5</v>
       </c>
       <c r="B56" s="1">
@@ -3166,41 +3248,45 @@
         <v>20</v>
       </c>
       <c r="M56" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>149</v>
       </c>
       <c r="N56" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>72</v>
       </c>
       <c r="O56" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>116</v>
       </c>
       <c r="P56" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>97</v>
       </c>
       <c r="Q56" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>137</v>
       </c>
       <c r="R56" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>111</v>
       </c>
       <c r="S56" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>140</v>
       </c>
       <c r="T56" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>118</v>
       </c>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U56" s="5">
+        <f t="shared" si="34"/>
+        <v>940</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1;4;wealthcat1</v>
       </c>
       <c r="B57" s="1">
@@ -3234,41 +3320,45 @@
         <v>21</v>
       </c>
       <c r="M57" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>144</v>
       </c>
       <c r="N57" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>106</v>
       </c>
       <c r="O57" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>155</v>
       </c>
       <c r="P57" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>136</v>
       </c>
       <c r="Q57" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>121</v>
       </c>
       <c r="R57" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>112</v>
       </c>
       <c r="S57" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>123</v>
       </c>
       <c r="T57" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>80</v>
       </c>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U57" s="5">
+        <f t="shared" si="34"/>
+        <v>977</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1;4;wealthcat2</v>
       </c>
       <c r="B58" s="1">
@@ -3302,41 +3392,45 @@
         <v>22</v>
       </c>
       <c r="M58" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>135</v>
       </c>
       <c r="N58" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>87</v>
       </c>
       <c r="O58" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>168</v>
       </c>
       <c r="P58" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>138</v>
       </c>
       <c r="Q58" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>154</v>
       </c>
       <c r="R58" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>130</v>
       </c>
       <c r="S58" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>149</v>
       </c>
       <c r="T58" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>71</v>
       </c>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U58" s="5">
+        <f t="shared" si="34"/>
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1;4;wealthcat3</v>
       </c>
       <c r="B59" s="1">
@@ -3364,9 +3458,9 @@
         <v>589</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1;4;wealthcat4</v>
       </c>
       <c r="B60" s="1">
@@ -3394,9 +3488,9 @@
         <v>589</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1;4;wealthcat5</v>
       </c>
       <c r="B61" s="1">
@@ -3424,9 +3518,9 @@
         <v>589</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1;5;wealthcat1</v>
       </c>
       <c r="B62" s="1">
@@ -3454,9 +3548,9 @@
         <v>648</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1;5;wealthcat2</v>
       </c>
       <c r="B63" s="1">
@@ -3484,9 +3578,9 @@
         <v>648</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1;5;wealthcat3</v>
       </c>
       <c r="B64" s="1">
@@ -3516,7 +3610,7 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1;5;wealthcat4</v>
       </c>
       <c r="B65" s="1">
@@ -3546,7 +3640,7 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1;5;wealthcat5</v>
       </c>
       <c r="B66" s="1">
@@ -3576,7 +3670,7 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1;6;wealthcat1</v>
       </c>
       <c r="B67" s="1">
@@ -3606,7 +3700,7 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1;6;wealthcat2</v>
       </c>
       <c r="B68" s="1">
@@ -3636,7 +3730,7 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1;6;wealthcat3</v>
       </c>
       <c r="B69" s="1">
@@ -3666,7 +3760,7 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1;6;wealthcat4</v>
       </c>
       <c r="B70" s="1">
@@ -3696,7 +3790,7 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1;6;wealthcat5</v>
       </c>
       <c r="B71" s="1">
@@ -3726,7 +3820,7 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1;7;wealthcat1</v>
       </c>
       <c r="B72" s="1">
@@ -3756,7 +3850,7 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1;7;wealthcat2</v>
       </c>
       <c r="B73" s="1">
@@ -3786,7 +3880,7 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1;7;wealthcat3</v>
       </c>
       <c r="B74" s="1">
@@ -3816,7 +3910,7 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1;7;wealthcat4</v>
       </c>
       <c r="B75" s="1">
@@ -3846,7 +3940,7 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1;7;wealthcat5</v>
       </c>
       <c r="B76" s="1">
@@ -3876,7 +3970,7 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1;8;wealthcat1</v>
       </c>
       <c r="B77" s="1">
@@ -3906,7 +4000,7 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1;8;wealthcat2</v>
       </c>
       <c r="B78" s="1">
@@ -3936,7 +4030,7 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1;8;wealthcat3</v>
       </c>
       <c r="B79" s="1">
@@ -3966,7 +4060,7 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1;8;wealthcat4</v>
       </c>
       <c r="B80" s="1">
@@ -3996,7 +4090,7 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1;8;wealthcat5</v>
       </c>
       <c r="B81" s="1">
@@ -4026,7 +4120,7 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>2;1;wealthcat1</v>
       </c>
       <c r="B82" s="1">
@@ -4056,7 +4150,7 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>2;1;wealthcat2</v>
       </c>
       <c r="B83" s="1">
@@ -4086,7 +4180,7 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>2;1;wealthcat3</v>
       </c>
       <c r="B84" s="1">
@@ -4116,7 +4210,7 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>2;1;wealthcat4</v>
       </c>
       <c r="B85" s="1">
@@ -4146,7 +4240,7 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>2;1;wealthcat5</v>
       </c>
       <c r="B86" s="1">
@@ -4176,7 +4270,7 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>2;2;wealthcat1</v>
       </c>
       <c r="B87" s="1">
@@ -4206,7 +4300,7 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>2;2;wealthcat2</v>
       </c>
       <c r="B88" s="1">
@@ -4236,7 +4330,7 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>2;2;wealthcat3</v>
       </c>
       <c r="B89" s="1">
@@ -4266,7 +4360,7 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>2;2;wealthcat4</v>
       </c>
       <c r="B90" s="1">
@@ -4296,7 +4390,7 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>2;2;wealthcat5</v>
       </c>
       <c r="B91" s="1">
@@ -4326,7 +4420,7 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>2;3;wealthcat1</v>
       </c>
       <c r="B92" s="1">
@@ -4356,7 +4450,7 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>2;3;wealthcat2</v>
       </c>
       <c r="B93" s="1">
@@ -4386,7 +4480,7 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>2;3;wealthcat3</v>
       </c>
       <c r="B94" s="1">
@@ -4416,7 +4510,7 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>2;3;wealthcat4</v>
       </c>
       <c r="B95" s="1">
@@ -4446,7 +4540,7 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>2;3;wealthcat5</v>
       </c>
       <c r="B96" s="1">
@@ -4476,7 +4570,7 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>2;4;wealthcat1</v>
       </c>
       <c r="B97" s="1">
@@ -4506,7 +4600,7 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>2;4;wealthcat2</v>
       </c>
       <c r="B98" s="1">
@@ -4536,7 +4630,7 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>2;4;wealthcat3</v>
       </c>
       <c r="B99" s="1">
@@ -4566,7 +4660,7 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>2;4;wealthcat4</v>
       </c>
       <c r="B100" s="1">
@@ -4596,7 +4690,7 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>2;4;wealthcat5</v>
       </c>
       <c r="B101" s="1">
@@ -4626,7 +4720,7 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>2;5;wealthcat1</v>
       </c>
       <c r="B102" s="1">
@@ -4656,7 +4750,7 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>2;5;wealthcat2</v>
       </c>
       <c r="B103" s="1">
@@ -4686,7 +4780,7 @@
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>2;5;wealthcat3</v>
       </c>
       <c r="B104" s="1">
@@ -4716,7 +4810,7 @@
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>2;5;wealthcat4</v>
       </c>
       <c r="B105" s="1">
@@ -4746,7 +4840,7 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="str">
-        <f t="shared" ref="A106:A121" si="28">B106&amp;";"&amp;C106&amp;";"&amp;D106</f>
+        <f t="shared" ref="A106:A121" si="37">B106&amp;";"&amp;C106&amp;";"&amp;D106</f>
         <v>2;5;wealthcat5</v>
       </c>
       <c r="B106" s="1">
@@ -4776,7 +4870,7 @@
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="37"/>
         <v>2;6;wealthcat1</v>
       </c>
       <c r="B107" s="1">
@@ -4806,7 +4900,7 @@
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="37"/>
         <v>2;6;wealthcat2</v>
       </c>
       <c r="B108" s="1">
@@ -4836,7 +4930,7 @@
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="37"/>
         <v>2;6;wealthcat3</v>
       </c>
       <c r="B109" s="1">
@@ -4866,7 +4960,7 @@
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="37"/>
         <v>2;6;wealthcat4</v>
       </c>
       <c r="B110" s="1">
@@ -4896,7 +4990,7 @@
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="37"/>
         <v>2;6;wealthcat5</v>
       </c>
       <c r="B111" s="1">
@@ -4926,7 +5020,7 @@
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="37"/>
         <v>2;7;wealthcat1</v>
       </c>
       <c r="B112" s="1">
@@ -4956,7 +5050,7 @@
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="37"/>
         <v>2;7;wealthcat2</v>
       </c>
       <c r="B113" s="1">
@@ -4986,7 +5080,7 @@
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="37"/>
         <v>2;7;wealthcat3</v>
       </c>
       <c r="B114" s="1">
@@ -5016,7 +5110,7 @@
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="37"/>
         <v>2;7;wealthcat4</v>
       </c>
       <c r="B115" s="1">
@@ -5046,7 +5140,7 @@
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="37"/>
         <v>2;7;wealthcat5</v>
       </c>
       <c r="B116" s="1">
@@ -5076,7 +5170,7 @@
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="37"/>
         <v>2;8;wealthcat1</v>
       </c>
       <c r="B117" s="1">
@@ -5106,7 +5200,7 @@
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="37"/>
         <v>2;8;wealthcat2</v>
       </c>
       <c r="B118" s="1">
@@ -5136,7 +5230,7 @@
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="37"/>
         <v>2;8;wealthcat3</v>
       </c>
       <c r="B119" s="1">
@@ -5166,7 +5260,7 @@
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="37"/>
         <v>2;8;wealthcat4</v>
       </c>
       <c r="B120" s="1">
@@ -5196,7 +5290,7 @@
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="37"/>
         <v>2;8;wealthcat5</v>
       </c>
       <c r="B121" s="1">
@@ -5284,31 +5378,31 @@
         <v>54</v>
       </c>
       <c r="N154">
-        <f t="shared" ref="N154:T154" si="29">N4</f>
+        <f t="shared" ref="N154:T154" si="38">N4</f>
         <v>56</v>
       </c>
       <c r="O154">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>60</v>
       </c>
       <c r="P154">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>64</v>
       </c>
       <c r="Q154">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>68</v>
       </c>
       <c r="R154">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>72</v>
       </c>
       <c r="S154">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>78</v>
       </c>
       <c r="T154">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>86</v>
       </c>
       <c r="U154" t="s">
@@ -5358,7 +5452,7 @@
     </row>
     <row r="157" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="str">
-        <f t="shared" ref="A157:A220" si="30">B157&amp;";"&amp;C157&amp;";"&amp;D157</f>
+        <f t="shared" ref="A157:A220" si="39">B157&amp;";"&amp;C157&amp;";"&amp;D157</f>
         <v>1;1;1</v>
       </c>
       <c r="B157" s="1">
@@ -5430,7 +5524,7 @@
     </row>
     <row r="158" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v>1;1;2</v>
       </c>
       <c r="B158" s="1">
@@ -5499,7 +5593,7 @@
     </row>
     <row r="159" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v>1;1;3</v>
       </c>
       <c r="B159" s="1">
@@ -5568,7 +5662,7 @@
     </row>
     <row r="160" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v>1;1;4</v>
       </c>
       <c r="B160" s="1">
@@ -5637,7 +5731,7 @@
     </row>
     <row r="161" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v>1;1;5</v>
       </c>
       <c r="B161" s="1">
@@ -5706,7 +5800,7 @@
     </row>
     <row r="162" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v>1;1;6</v>
       </c>
       <c r="B162" s="1">
@@ -5775,7 +5869,7 @@
     </row>
     <row r="163" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v>1;2;1</v>
       </c>
       <c r="B163" s="1">
@@ -5816,7 +5910,7 @@
     </row>
     <row r="164" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v>1;2;2</v>
       </c>
       <c r="B164" s="1">
@@ -5854,31 +5948,31 @@
         <v>0</v>
       </c>
       <c r="N164" s="5">
-        <f t="shared" ref="N164:T169" si="31">VLOOKUP(N$1&amp;";"&amp;N$2&amp;";"&amp;$L164,$A$157:$I$252,MATCH($K164,$A$156:$I$156,FALSE),FALSE)</f>
+        <f t="shared" ref="N164:T169" si="40">VLOOKUP(N$1&amp;";"&amp;N$2&amp;";"&amp;$L164,$A$157:$I$252,MATCH($K164,$A$156:$I$156,FALSE),FALSE)</f>
         <v>3</v>
       </c>
       <c r="O164" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="P164" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="Q164" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="R164" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="S164" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>8</v>
       </c>
       <c r="T164" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>12</v>
       </c>
       <c r="U164" s="5">
@@ -5888,7 +5982,7 @@
     </row>
     <row r="165" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v>1;2;3</v>
       </c>
       <c r="B165" s="1">
@@ -5922,45 +6016,45 @@
         <v>2</v>
       </c>
       <c r="M165" s="5">
-        <f t="shared" ref="M165:T169" si="32">VLOOKUP(M$1&amp;";"&amp;M$2&amp;";"&amp;$L165,$A$157:$I$252,MATCH($K165,$A$156:$I$156,FALSE),FALSE)</f>
+        <f t="shared" ref="M165:T169" si="41">VLOOKUP(M$1&amp;";"&amp;M$2&amp;";"&amp;$L165,$A$157:$I$252,MATCH($K165,$A$156:$I$156,FALSE),FALSE)</f>
         <v>6</v>
       </c>
       <c r="N165" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>4</v>
       </c>
       <c r="O165" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>6</v>
       </c>
       <c r="P165" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>6</v>
       </c>
       <c r="Q165" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>10</v>
       </c>
       <c r="R165" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>20</v>
       </c>
       <c r="S165" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>24</v>
       </c>
       <c r="T165" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>36</v>
       </c>
       <c r="U165" s="5">
-        <f t="shared" ref="U165:U176" si="33">SUM(M165:T165)</f>
+        <f t="shared" ref="U165:U176" si="42">SUM(M165:T165)</f>
         <v>112</v>
       </c>
     </row>
     <row r="166" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v>1;2;4</v>
       </c>
       <c r="B166" s="1">
@@ -5994,45 +6088,45 @@
         <v>3</v>
       </c>
       <c r="M166" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="N166" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>3</v>
       </c>
       <c r="O166" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>3</v>
       </c>
       <c r="P166" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>4</v>
       </c>
       <c r="Q166" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>5</v>
       </c>
       <c r="R166" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>5</v>
       </c>
       <c r="S166" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>11</v>
       </c>
       <c r="T166" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>16</v>
       </c>
       <c r="U166" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>48</v>
       </c>
     </row>
     <row r="167" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v>1;2;5</v>
       </c>
       <c r="B167" s="1">
@@ -6066,45 +6160,45 @@
         <v>4</v>
       </c>
       <c r="M167" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>5</v>
       </c>
       <c r="N167" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>3</v>
       </c>
       <c r="O167" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>15</v>
       </c>
       <c r="P167" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>13</v>
       </c>
       <c r="Q167" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>16</v>
       </c>
       <c r="R167" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>27</v>
       </c>
       <c r="S167" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>43</v>
       </c>
       <c r="T167" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>41</v>
       </c>
       <c r="U167" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>163</v>
       </c>
     </row>
     <row r="168" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v>1;2;6</v>
       </c>
       <c r="B168" s="1">
@@ -6138,45 +6232,45 @@
         <v>5</v>
       </c>
       <c r="M168" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>3</v>
       </c>
       <c r="N168" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="O168" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>2</v>
       </c>
       <c r="P168" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>5</v>
       </c>
       <c r="Q168" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>7</v>
       </c>
       <c r="R168" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>6</v>
       </c>
       <c r="S168" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>22</v>
       </c>
       <c r="T168" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>15</v>
       </c>
       <c r="U168" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>61</v>
       </c>
     </row>
     <row r="169" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v>1;3;1</v>
       </c>
       <c r="B169" s="1">
@@ -6210,45 +6304,45 @@
         <v>6</v>
       </c>
       <c r="M169" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>2</v>
       </c>
       <c r="N169" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>2</v>
       </c>
       <c r="O169" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>3</v>
       </c>
       <c r="P169" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>3</v>
       </c>
       <c r="Q169" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>5</v>
       </c>
       <c r="R169" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>3</v>
       </c>
       <c r="S169" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>5</v>
       </c>
       <c r="T169" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>2</v>
       </c>
       <c r="U169" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>25</v>
       </c>
     </row>
     <row r="170" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v>1;3;2</v>
       </c>
       <c r="B170" s="1">
@@ -6278,7 +6372,7 @@
     </row>
     <row r="171" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v>1;3;3</v>
       </c>
       <c r="B171" s="1">
@@ -6317,41 +6411,41 @@
         <v>64</v>
       </c>
       <c r="N171" s="5">
-        <f t="shared" ref="N171:T176" si="34">VLOOKUP(N$1&amp;";"&amp;N$2&amp;";"&amp;$L171,$A$157:$I$252,MATCH($K171,$A$156:$I$156,FALSE),FALSE)</f>
+        <f t="shared" ref="N171:T176" si="43">VLOOKUP(N$1&amp;";"&amp;N$2&amp;";"&amp;$L171,$A$157:$I$252,MATCH($K171,$A$156:$I$156,FALSE),FALSE)</f>
         <v>41</v>
       </c>
       <c r="O171" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>62</v>
       </c>
       <c r="P171" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>51</v>
       </c>
       <c r="Q171" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>43</v>
       </c>
       <c r="R171" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>38</v>
       </c>
       <c r="S171" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>67</v>
       </c>
       <c r="T171" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>32</v>
       </c>
       <c r="U171" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>398</v>
       </c>
     </row>
     <row r="172" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v>1;3;4</v>
       </c>
       <c r="B172" s="1">
@@ -6382,49 +6476,49 @@
         <v>10</v>
       </c>
       <c r="L172">
-        <f t="shared" ref="L172:L176" si="35">L165</f>
+        <f t="shared" ref="L172:L176" si="44">L165</f>
         <v>2</v>
       </c>
       <c r="M172" s="5">
-        <f t="shared" ref="M172:T176" si="36">VLOOKUP(M$1&amp;";"&amp;M$2&amp;";"&amp;$L172,$A$157:$I$252,MATCH($K172,$A$156:$I$156,FALSE),FALSE)</f>
+        <f t="shared" ref="M172:T176" si="45">VLOOKUP(M$1&amp;";"&amp;M$2&amp;";"&amp;$L172,$A$157:$I$252,MATCH($K172,$A$156:$I$156,FALSE),FALSE)</f>
         <v>276</v>
       </c>
       <c r="N172" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>150</v>
       </c>
       <c r="O172" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>244</v>
       </c>
       <c r="P172" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>161</v>
       </c>
       <c r="Q172" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>184</v>
       </c>
       <c r="R172" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>160</v>
       </c>
       <c r="S172" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>191</v>
       </c>
       <c r="T172" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>141</v>
       </c>
       <c r="U172" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>1507</v>
       </c>
     </row>
     <row r="173" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v>1;3;5</v>
       </c>
       <c r="B173" s="1">
@@ -6455,49 +6549,49 @@
         <v>10</v>
       </c>
       <c r="L173">
-        <f t="shared" si="35"/>
+        <f t="shared" si="44"/>
         <v>3</v>
       </c>
       <c r="M173" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="45"/>
         <v>69</v>
       </c>
       <c r="N173" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>38</v>
       </c>
       <c r="O173" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>55</v>
       </c>
       <c r="P173" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>54</v>
       </c>
       <c r="Q173" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>55</v>
       </c>
       <c r="R173" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>62</v>
       </c>
       <c r="S173" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>58</v>
       </c>
       <c r="T173" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>53</v>
       </c>
       <c r="U173" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>444</v>
       </c>
     </row>
     <row r="174" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v>1;3;6</v>
       </c>
       <c r="B174" s="1">
@@ -6528,49 +6622,49 @@
         <v>10</v>
       </c>
       <c r="L174">
-        <f t="shared" si="35"/>
+        <f t="shared" si="44"/>
         <v>4</v>
       </c>
       <c r="M174" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="45"/>
         <v>239</v>
       </c>
       <c r="N174" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>147</v>
       </c>
       <c r="O174" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>221</v>
       </c>
       <c r="P174" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>204</v>
       </c>
       <c r="Q174" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>222</v>
       </c>
       <c r="R174" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>200</v>
       </c>
       <c r="S174" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>227</v>
       </c>
       <c r="T174" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>149</v>
       </c>
       <c r="U174" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>1609</v>
       </c>
     </row>
     <row r="175" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v>1;4;1</v>
       </c>
       <c r="B175" s="1">
@@ -6601,49 +6695,49 @@
         <v>10</v>
       </c>
       <c r="L175">
-        <f t="shared" si="35"/>
+        <f t="shared" si="44"/>
         <v>5</v>
       </c>
       <c r="M175" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="45"/>
         <v>84</v>
       </c>
       <c r="N175" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>41</v>
       </c>
       <c r="O175" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>80</v>
       </c>
       <c r="P175" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>92</v>
       </c>
       <c r="Q175" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>111</v>
       </c>
       <c r="R175" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>81</v>
       </c>
       <c r="S175" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>92</v>
       </c>
       <c r="T175" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>64</v>
       </c>
       <c r="U175" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>645</v>
       </c>
     </row>
     <row r="176" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v>1;4;2</v>
       </c>
       <c r="B176" s="1">
@@ -6674,49 +6768,49 @@
         <v>10</v>
       </c>
       <c r="L176">
-        <f t="shared" si="35"/>
+        <f t="shared" si="44"/>
         <v>6</v>
       </c>
       <c r="M176" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="45"/>
         <v>27</v>
       </c>
       <c r="N176" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>20</v>
       </c>
       <c r="O176" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>40</v>
       </c>
       <c r="P176" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>27</v>
       </c>
       <c r="Q176" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>33</v>
       </c>
       <c r="R176" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>23</v>
       </c>
       <c r="S176" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>25</v>
       </c>
       <c r="T176" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>21</v>
       </c>
       <c r="U176" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>216</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v>1;4;3</v>
       </c>
       <c r="B177" s="1">
@@ -6746,7 +6840,7 @@
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v>1;4;4</v>
       </c>
       <c r="B178" s="1">
@@ -6776,7 +6870,7 @@
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v>1;4;5</v>
       </c>
       <c r="B179" s="1">
@@ -6806,7 +6900,7 @@
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v>1;4;6</v>
       </c>
       <c r="B180" s="1">
@@ -6836,7 +6930,7 @@
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v>1;5;1</v>
       </c>
       <c r="B181" s="1">
@@ -6866,7 +6960,7 @@
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v>1;5;2</v>
       </c>
       <c r="B182" s="1">
@@ -6896,7 +6990,7 @@
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v>1;5;3</v>
       </c>
       <c r="B183" s="1">
@@ -6926,7 +7020,7 @@
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v>1;5;4</v>
       </c>
       <c r="B184" s="1">
@@ -6956,7 +7050,7 @@
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v>1;5;5</v>
       </c>
       <c r="B185" s="1">
@@ -6986,7 +7080,7 @@
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v>1;5;6</v>
       </c>
       <c r="B186" s="1">
@@ -7016,7 +7110,7 @@
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v>1;6;1</v>
       </c>
       <c r="B187" s="1">
@@ -7046,7 +7140,7 @@
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v>1;6;2</v>
       </c>
       <c r="B188" s="1">
@@ -7076,7 +7170,7 @@
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v>1;6;3</v>
       </c>
       <c r="B189" s="1">
@@ -7106,7 +7200,7 @@
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v>1;6;4</v>
       </c>
       <c r="B190" s="1">
@@ -7136,7 +7230,7 @@
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v>1;6;5</v>
       </c>
       <c r="B191" s="1">
@@ -7166,7 +7260,7 @@
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v>1;6;6</v>
       </c>
       <c r="B192" s="1">
@@ -7196,7 +7290,7 @@
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v>1;7;1</v>
       </c>
       <c r="B193" s="1">
@@ -7226,7 +7320,7 @@
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v>1;7;2</v>
       </c>
       <c r="B194" s="1">
@@ -7256,7 +7350,7 @@
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v>1;7;3</v>
       </c>
       <c r="B195" s="1">
@@ -7286,7 +7380,7 @@
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v>1;7;4</v>
       </c>
       <c r="B196" s="1">
@@ -7316,7 +7410,7 @@
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v>1;7;5</v>
       </c>
       <c r="B197" s="1">
@@ -7346,7 +7440,7 @@
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v>1;7;6</v>
       </c>
       <c r="B198" s="1">
@@ -7376,7 +7470,7 @@
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v>1;8;1</v>
       </c>
       <c r="B199" s="1">
@@ -7406,7 +7500,7 @@
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v>1;8;2</v>
       </c>
       <c r="B200" s="1">
@@ -7436,7 +7530,7 @@
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v>1;8;3</v>
       </c>
       <c r="B201" s="1">
@@ -7466,7 +7560,7 @@
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v>1;8;4</v>
       </c>
       <c r="B202" s="1">
@@ -7496,7 +7590,7 @@
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v>1;8;5</v>
       </c>
       <c r="B203" s="1">
@@ -7526,7 +7620,7 @@
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v>1;8;6</v>
       </c>
       <c r="B204" s="1">
@@ -7556,7 +7650,7 @@
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v>2;1;1</v>
       </c>
       <c r="B205" s="1">
@@ -7586,7 +7680,7 @@
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v>2;1;2</v>
       </c>
       <c r="B206" s="1">
@@ -7616,7 +7710,7 @@
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v>2;1;3</v>
       </c>
       <c r="B207" s="1">
@@ -7646,7 +7740,7 @@
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v>2;1;4</v>
       </c>
       <c r="B208" s="1">
@@ -7676,7 +7770,7 @@
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v>2;1;5</v>
       </c>
       <c r="B209" s="1">
@@ -7706,7 +7800,7 @@
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v>2;1;6</v>
       </c>
       <c r="B210" s="1">
@@ -7736,7 +7830,7 @@
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v>2;2;1</v>
       </c>
       <c r="B211" s="1">
@@ -7766,7 +7860,7 @@
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v>2;2;2</v>
       </c>
       <c r="B212" s="1">
@@ -7796,7 +7890,7 @@
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v>2;2;3</v>
       </c>
       <c r="B213" s="1">
@@ -7826,7 +7920,7 @@
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v>2;2;4</v>
       </c>
       <c r="B214" s="1">
@@ -7856,7 +7950,7 @@
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v>2;2;5</v>
       </c>
       <c r="B215" s="1">
@@ -7886,7 +7980,7 @@
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v>2;2;6</v>
       </c>
       <c r="B216" s="1">
@@ -7916,7 +8010,7 @@
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v>2;3;1</v>
       </c>
       <c r="B217" s="1">
@@ -7946,7 +8040,7 @@
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v>2;3;2</v>
       </c>
       <c r="B218" s="1">
@@ -7976,7 +8070,7 @@
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v>2;3;3</v>
       </c>
       <c r="B219" s="1">
@@ -8006,7 +8100,7 @@
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v>2;3;4</v>
       </c>
       <c r="B220" s="1">
@@ -8036,7 +8130,7 @@
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="str">
-        <f t="shared" ref="A221:A252" si="37">B221&amp;";"&amp;C221&amp;";"&amp;D221</f>
+        <f t="shared" ref="A221:A252" si="46">B221&amp;";"&amp;C221&amp;";"&amp;D221</f>
         <v>2;3;5</v>
       </c>
       <c r="B221" s="1">
@@ -8066,7 +8160,7 @@
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="46"/>
         <v>2;3;6</v>
       </c>
       <c r="B222" s="1">
@@ -8096,7 +8190,7 @@
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="46"/>
         <v>2;4;1</v>
       </c>
       <c r="B223" s="1">
@@ -8126,7 +8220,7 @@
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="46"/>
         <v>2;4;2</v>
       </c>
       <c r="B224" s="1">
@@ -8156,7 +8250,7 @@
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="46"/>
         <v>2;4;3</v>
       </c>
       <c r="B225" s="1">
@@ -8186,7 +8280,7 @@
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="46"/>
         <v>2;4;4</v>
       </c>
       <c r="B226" s="1">
@@ -8216,7 +8310,7 @@
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="46"/>
         <v>2;4;5</v>
       </c>
       <c r="B227" s="1">
@@ -8246,7 +8340,7 @@
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="46"/>
         <v>2;4;6</v>
       </c>
       <c r="B228" s="1">
@@ -8276,7 +8370,7 @@
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="46"/>
         <v>2;5;1</v>
       </c>
       <c r="B229" s="1">
@@ -8306,7 +8400,7 @@
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="46"/>
         <v>2;5;2</v>
       </c>
       <c r="B230" s="1">
@@ -8336,7 +8430,7 @@
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="46"/>
         <v>2;5;3</v>
       </c>
       <c r="B231" s="1">
@@ -8366,7 +8460,7 @@
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="46"/>
         <v>2;5;4</v>
       </c>
       <c r="B232" s="1">
@@ -8396,7 +8490,7 @@
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="46"/>
         <v>2;5;5</v>
       </c>
       <c r="B233" s="1">
@@ -8426,7 +8520,7 @@
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="46"/>
         <v>2;5;6</v>
       </c>
       <c r="B234" s="1">
@@ -8456,7 +8550,7 @@
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="46"/>
         <v>2;6;1</v>
       </c>
       <c r="B235" s="1">
@@ -8486,7 +8580,7 @@
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="46"/>
         <v>2;6;2</v>
       </c>
       <c r="B236" s="1">
@@ -8516,7 +8610,7 @@
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="46"/>
         <v>2;6;3</v>
       </c>
       <c r="B237" s="1">
@@ -8546,7 +8640,7 @@
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="46"/>
         <v>2;6;4</v>
       </c>
       <c r="B238" s="1">
@@ -8576,7 +8670,7 @@
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="46"/>
         <v>2;6;5</v>
       </c>
       <c r="B239" s="1">
@@ -8606,7 +8700,7 @@
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="46"/>
         <v>2;6;6</v>
       </c>
       <c r="B240" s="1">
@@ -8636,7 +8730,7 @@
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="46"/>
         <v>2;7;1</v>
       </c>
       <c r="B241" s="1">
@@ -8666,7 +8760,7 @@
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="46"/>
         <v>2;7;2</v>
       </c>
       <c r="B242" s="1">
@@ -8696,7 +8790,7 @@
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="46"/>
         <v>2;7;3</v>
       </c>
       <c r="B243" s="1">
@@ -8726,7 +8820,7 @@
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="46"/>
         <v>2;7;4</v>
       </c>
       <c r="B244" s="1">
@@ -8756,7 +8850,7 @@
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="46"/>
         <v>2;7;5</v>
       </c>
       <c r="B245" s="1">
@@ -8786,7 +8880,7 @@
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="46"/>
         <v>2;7;6</v>
       </c>
       <c r="B246" s="1">
@@ -8816,7 +8910,7 @@
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="46"/>
         <v>2;8;1</v>
       </c>
       <c r="B247" s="1">
@@ -8846,7 +8940,7 @@
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="46"/>
         <v>2;8;2</v>
       </c>
       <c r="B248" s="1">
@@ -8876,7 +8970,7 @@
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="46"/>
         <v>2;8;3</v>
       </c>
       <c r="B249" s="1">
@@ -8906,7 +9000,7 @@
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="46"/>
         <v>2;8;4</v>
       </c>
       <c r="B250" s="1">
@@ -8936,7 +9030,7 @@
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="46"/>
         <v>2;8;5</v>
       </c>
       <c r="B251" s="1">
@@ -8966,7 +9060,7 @@
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="46"/>
         <v>2;8;6</v>
       </c>
       <c r="B252" s="1">
